--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
   <si>
     <t>1/2/3/4/5</t>
   </si>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>115 nº 1397</t>
+  </si>
+  <si>
+    <t>Nro. De Alarma</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Casa</t>
   </si>
 </sst>
 </file>
@@ -552,6 +564,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,942 +855,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D68"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>2216698300</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>1144345440</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>1134814269</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2214007632</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>2216008931</v>
+        <v>2214007632</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>2214205449</v>
+        <v>2216008931</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2214205449</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2216203488</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>2215681856</v>
+        <v>2216203488</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2215681856</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>2215758838</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2216914124</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>2215956774</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2215386172</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>29</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2215386172</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2214555259</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
-        <v>2215467497</v>
+        <v>2214555259</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>1138440081</v>
+        <v>2215467497</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1">
-        <v>2214949464</v>
+        <v>1138440081</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2214949464</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>34</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>2216543997</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>2215369942</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2213043201</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2213043201</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>2215725383</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>2215933061</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>1163724029</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>2215426330</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2215364308</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2215364308</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>2216315309</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>1150438399</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2216908075</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>47.78</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1">
-        <v>2215551396</v>
+        <v>2216908075</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>48</v>
+        <v>47.78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
-        <v>2214945985</v>
+        <v>2215551396</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1">
-        <v>2214764281</v>
+        <v>2214945985</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1">
-        <v>2215364308</v>
+        <v>2214764281</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
-        <v>2215225126</v>
+        <v>2215364308</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1">
-        <v>2213149638</v>
+        <v>2215225126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1">
-        <v>2214096963</v>
+        <v>2213149638</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
+        <v>53</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2214096963</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>2215790626</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>2216717444</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2214980135</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>56</v>
-      </c>
+      <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1">
-        <v>2214871080</v>
+        <v>2214980135</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1">
-        <v>2214852790</v>
+        <v>2214871080</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2214852790</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>58</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>2213182388</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2216271194</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2216271194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>2214634036</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>63</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2215066818</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1">
-        <v>2215083357</v>
+        <v>2215066818</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1">
-        <v>2214959063</v>
+        <v>2215083357</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1">
-        <v>2213047819</v>
+        <v>2214959063</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1">
-        <v>2214375242</v>
+        <v>2213047819</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1">
-        <v>2214973910</v>
+        <v>2214375242</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1">
-        <v>2215442803</v>
+        <v>2214973910</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1">
-        <v>2216281775</v>
+        <v>2215442803</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2216281775</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>71</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>2216407908</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <v>2215018014</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>74</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
         <v>81</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
-        <v>76</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
         <v>77</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>2214592961</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
         <v>79</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>2216341093</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
         <v>84</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>2213040352</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>1/2/3/4/5</t>
   </si>
@@ -146,15 +146,9 @@
     <t>115 n° 1153</t>
   </si>
   <si>
-    <t>Leonardo Sanabria</t>
-  </si>
-  <si>
     <t>115 n° 1172</t>
   </si>
   <si>
-    <t>Claudia Quintero</t>
-  </si>
-  <si>
     <t>Pascua Miguel</t>
   </si>
   <si>
@@ -191,15 +185,9 @@
     <t>115 n° 1268</t>
   </si>
   <si>
-    <t>Griselda Reyes</t>
-  </si>
-  <si>
     <t>115 n° 1288</t>
   </si>
   <si>
-    <t>Pedro E. Reyes</t>
-  </si>
-  <si>
     <t>36/37</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>115 n° 1329</t>
   </si>
   <si>
-    <t>Josefina</t>
-  </si>
-  <si>
     <t>115 n° 1344</t>
   </si>
   <si>
@@ -305,15 +290,9 @@
     <t>115 n° 1424</t>
   </si>
   <si>
-    <t>Mirta G.F de Acuña</t>
-  </si>
-  <si>
     <t>115 n° 1458</t>
   </si>
   <si>
-    <t>Jorge N. Acuña</t>
-  </si>
-  <si>
     <t>Palacios Mariel</t>
   </si>
   <si>
@@ -458,16 +437,22 @@
     <t>115 nº 1397</t>
   </si>
   <si>
-    <t>Nro. De Alarma</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Casa</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mirta y Jorge</t>
+  </si>
+  <si>
+    <t>Josefina y Jorge</t>
+  </si>
+  <si>
+    <t>Griselda y Pedro</t>
+  </si>
+  <si>
+    <t>Leonardo y Claudia</t>
+  </si>
+  <si>
+    <t>2215956774 / 2215386172</t>
   </si>
 </sst>
 </file>
@@ -497,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -533,24 +518,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,8 +544,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,960 +833,916 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2216698300</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2216698300</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1144345440</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
+      <c r="A6" s="1">
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1144345440</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1134814269</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1134814269</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+      <c r="A8" s="1">
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2214007632</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2214007632</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2216008931</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2216008931</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2214205449</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2214205449</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2216203488</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2216203488</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2215681856</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2215681856</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2215758838</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>25</v>
+      <c r="A17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2215758838</v>
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2216914124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
+      <c r="A18" s="7">
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2216914124</v>
+        <v>141</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>28</v>
+      <c r="A19" s="1">
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2215956774</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2215386172</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2214555259</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2215467497</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2214555259</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1138440081</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2215467497</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2214949464</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1138440081</v>
+        <v>51</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2216543997</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>33</v>
+      <c r="A25" s="7">
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2214949464</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2215369942</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>34</v>
+      <c r="A26" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2216543997</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>35</v>
+      <c r="A27" s="1">
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2215369942</v>
+        <v>57</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2215725383</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2213043201</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2215933061</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
+      <c r="A29" s="1">
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1163724029</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>38</v>
+      <c r="A30" s="7">
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2215725383</v>
+        <v>139</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2215426330</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>63</v>
+      <c r="A31" s="1">
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2215933061</v>
+        <v>66</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2216315309</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>41</v>
+      <c r="A32" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1163724029</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1150438399</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>42</v>
+      <c r="A33" s="1">
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2215426330</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2216908075</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
+      <c r="A34" s="1">
+        <v>47.78</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2215364308</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2215551396</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2216315309</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2214945985</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>73</v>
+      <c r="A36" s="1">
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1150438399</v>
+        <v>77</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2214764281</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2216908075</v>
+        <v>65</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2215364308</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>47.78</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2215551396</v>
+        <v>80</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2215225126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2214945985</v>
+        <v>82</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2213149638</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2214764281</v>
+        <v>84</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2214096963</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2215364308</v>
+        <v>86</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2215790626</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>51</v>
+      <c r="A42" s="8">
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2215225126</v>
+        <v>138</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2216717444</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2213149638</v>
+        <v>89</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2214871080</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2214096963</v>
+        <v>91</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2214852790</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2215790626</v>
+        <v>93</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2213182388</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>55</v>
+      <c r="A46" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2216717444</v>
+        <v>96</v>
+      </c>
+      <c r="C46" s="9">
+        <v>2216271194</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2214980135</v>
+        <v>99</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2214634036</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2214871080</v>
+        <v>101</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2215066818</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2214852790</v>
+        <v>103</v>
+      </c>
+      <c r="C49" s="9">
+        <v>2215083357</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2213182388</v>
+        <v>38</v>
+      </c>
+      <c r="C50" s="9">
+        <v>2214959063</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
+      <c r="A51" s="1">
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2216271194</v>
+        <v>106</v>
+      </c>
+      <c r="C51" s="9">
+        <v>2213047819</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>105</v>
+      <c r="A52" s="1">
+        <v>67</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2214634036</v>
+        <v>108</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2214375242</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2215066818</v>
+        <v>110</v>
+      </c>
+      <c r="C53" s="9">
+        <v>2214973910</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2215083357</v>
+        <v>112</v>
+      </c>
+      <c r="C54" s="9">
+        <v>2215442803</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2214959063</v>
+        <v>114</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2216281775</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2213047819</v>
+        <v>116</v>
+      </c>
+      <c r="C56" s="9">
+        <v>2216407908</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>67</v>
+      <c r="A57" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2214375242</v>
+        <v>119</v>
+      </c>
+      <c r="C57" s="9">
+        <v>2215018014</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2214973910</v>
+        <v>121</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>69</v>
+      <c r="A59" s="6">
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2215442803</v>
+        <v>123</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>70</v>
+      <c r="A60" s="6">
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2216281775</v>
+        <v>125</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>71</v>
+      <c r="A61" s="6">
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2216407908</v>
+        <v>127</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2214592961</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
+      <c r="A62" s="6">
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2215018014</v>
+        <v>129</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2216341093</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>74</v>
+      <c r="A63" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2213040352</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
-        <v>76</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
-        <v>77</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2214592961</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="2">
-        <v>2216341093</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>84</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="2">
-        <v>2213040352</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>143</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A46:A47"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>1/2/3/4/5</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>2215956774 / 2215386172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo  </t>
+  </si>
+  <si>
+    <t>221-5114662</t>
+  </si>
+  <si>
+    <t>115 nº 1551</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1742,6 +1751,20 @@
         <v>136</v>
       </c>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>80</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
   <si>
     <t>1/2/3/4/5</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>115 nº 1551</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Casa</t>
   </si>
 </sst>
 </file>
@@ -483,12 +495,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -531,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +578,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -842,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,912 +878,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C2" s="9">
         <v>2216698300</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="9">
         <v>1144345440</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>1134814269</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2214007632</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>2216008931</v>
+        <v>2214007632</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9">
-        <v>2214205449</v>
+        <v>2216008931</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2214205449</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2216203488</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9">
-        <v>2215681856</v>
+        <v>2216203488</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>137</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2215681856</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <v>2215758838</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="9">
         <v>2216914124</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2214555259</v>
+        <v>41</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
-        <v>2215467497</v>
+        <v>2214555259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9">
-        <v>1138440081</v>
+        <v>2215467497</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9">
-        <v>2214949464</v>
+        <v>1138440081</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2214949464</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <v>2216543997</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <v>2215369942</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>2215725383</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>2215933061</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>1163724029</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="9">
         <v>2215426330</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>2216315309</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>1150438399</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>46</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="9">
-        <v>2216908075</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>47.78</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="9">
-        <v>2215551396</v>
+        <v>2216908075</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>48</v>
+        <v>47.78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9">
-        <v>2214945985</v>
+        <v>2215551396</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="9">
-        <v>2214764281</v>
+        <v>2214945985</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C37" s="9">
-        <v>2215364308</v>
+        <v>2214764281</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C38" s="9">
-        <v>2215225126</v>
+        <v>2215364308</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9">
-        <v>2213149638</v>
+        <v>2215225126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9">
-        <v>2214096963</v>
+        <v>2213149638</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2214096963</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>54</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C42" s="9">
         <v>2215790626</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>55</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C43" s="9">
         <v>2216717444</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>56</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="9">
-        <v>2214871080</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="9">
-        <v>2214852790</v>
+        <v>2214871080</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
+        <v>57</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2214852790</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>58</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="9">
         <v>2213182388</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="9">
-        <v>2216271194</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2216271194</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C48" s="9">
         <v>2214634036</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>63</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="9">
-        <v>2215066818</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="9">
-        <v>2215083357</v>
+        <v>2215066818</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C50" s="9">
-        <v>2214959063</v>
+        <v>2215083357</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C51" s="9">
-        <v>2213047819</v>
+        <v>2214959063</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="9">
-        <v>2214375242</v>
+        <v>2213047819</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="9">
-        <v>2214973910</v>
+        <v>2214375242</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="9">
-        <v>2215442803</v>
+        <v>2214973910</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9">
-        <v>2216281775</v>
+        <v>2215442803</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="9">
+        <v>2216281775</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>71</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C57" s="9">
         <v>2216407908</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C58" s="9">
         <v>2215018014</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>74</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
-        <v>81</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2214592961</v>
+        <v>125</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
+        <v>77</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2214592961</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
         <v>79</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C63" s="10">
         <v>2216341093</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
-        <v>84</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="10">
-        <v>2213040352</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
+        <v>84</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2213040352</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
         <v>80</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>145</v>
       </c>
     </row>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -221,9 +221,6 @@
     <t>115 n° 1344</t>
   </si>
   <si>
-    <t>Jorge Basilico</t>
-  </si>
-  <si>
     <t>Marino Oscar &amp; Gina</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>115 n° 1464</t>
   </si>
   <si>
-    <t>Gustavo Velazquez</t>
-  </si>
-  <si>
     <t>115 n° 1468</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>59/60</t>
   </si>
   <si>
-    <t>Gustavo Ponce</t>
-  </si>
-  <si>
     <t>115 n° 1494</t>
   </si>
   <si>
@@ -474,6 +465,15 @@
   </si>
   <si>
     <t xml:space="preserve">Monica  </t>
+  </si>
+  <si>
+    <t>Jorge y Anahi</t>
+  </si>
+  <si>
+    <t>Gustavo y Silvia</t>
+  </si>
+  <si>
+    <t>Gustavo y Ana Clara</t>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,16 +876,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -1050,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -1092,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
@@ -1117,7 +1117,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C18" s="8">
         <v>2216914124</v>
@@ -1131,10 +1131,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -1148,7 +1148,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -1229,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" s="8">
         <v>2215369942</v>
@@ -1246,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
@@ -1299,7 +1299,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="8">
         <v>2215426330</v>
@@ -1313,27 +1313,27 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="8">
         <v>2216315309</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C33" s="8">
         <v>1150438399</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,13 +1341,13 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="8">
         <v>2216908075</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1355,13 +1355,13 @@
         <v>47.78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="8">
         <v>2215551396</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8">
         <v>2214945985</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1383,13 +1383,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8">
         <v>2214764281</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1397,13 +1397,13 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="C38" s="8">
         <v>2215364308</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,13 +1411,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="8">
         <v>2215225126</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1425,13 +1425,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="8">
         <v>2213149638</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1439,13 +1439,13 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="8">
         <v>2214096963</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1453,13 +1453,13 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="8">
         <v>2215790626</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1467,13 +1467,13 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="8">
         <v>2216717444</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1481,13 +1481,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="8">
         <v>2214871080</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1495,13 +1495,13 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C45" s="8">
         <v>2214852790</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1509,41 +1509,41 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="8">
         <v>2213182388</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C47" s="8">
         <v>2216271194</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C48" s="8">
         <v>2214634036</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1551,13 +1551,13 @@
         <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="8">
         <v>2215066818</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1565,13 +1565,13 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C50" s="8">
         <v>2215083357</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1585,7 +1585,7 @@
         <v>2214959063</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1593,13 +1593,13 @@
         <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="8">
         <v>2213047819</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1607,13 +1607,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" s="8">
         <v>2214375242</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1621,13 +1621,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C54" s="8">
         <v>2214973910</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1635,13 +1635,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" s="8">
         <v>2215442803</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1649,13 +1649,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C56" s="8">
         <v>2216281775</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1663,27 +1663,27 @@
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C57" s="8">
         <v>2216407908</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" s="8">
         <v>2215018014</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1691,13 +1691,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1705,13 +1705,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1719,13 +1719,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1733,13 +1733,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C62" s="9">
         <v>2214592961</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1747,27 +1747,27 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1775,13 +1775,13 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="9">
         <v>2213040352</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1789,13 +1789,13 @@
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -125,9 +125,6 @@
     <t>115 n° 1137</t>
   </si>
   <si>
-    <t>Alicia Acerbi</t>
-  </si>
-  <si>
     <t>413 n° 1220</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>Gustavo y Ana Clara</t>
+  </si>
+  <si>
+    <t>Mariano</t>
   </si>
 </sst>
 </file>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,16 +876,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -1050,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -1089,13 +1089,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1103,27 +1103,27 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8">
         <v>2215758838</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="8">
         <v>2216914124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1131,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1145,13 +1145,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1159,13 +1159,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8">
         <v>2214555259</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1173,13 +1173,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8">
         <v>2215467497</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1187,13 +1187,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8">
         <v>1138440081</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,13 +1201,13 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8">
         <v>2214949464</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,13 +1215,13 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8">
         <v>2216543997</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,27 +1229,27 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="8">
         <v>2215369942</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1257,27 +1257,27 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="8">
         <v>2215725383</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="8">
         <v>2215933061</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1285,13 +1285,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="8">
         <v>1163724029</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1299,13 +1299,13 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="8">
         <v>2215426330</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1313,27 +1313,27 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="8">
         <v>2216315309</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="8">
         <v>1150438399</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,13 +1341,13 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="8">
         <v>2216908075</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1355,13 +1355,13 @@
         <v>47.78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="8">
         <v>2215551396</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8">
         <v>2214945985</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1383,13 +1383,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="8">
         <v>2214764281</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1397,13 +1397,13 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="8">
         <v>2215364308</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,13 +1411,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8">
         <v>2215225126</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1425,13 +1425,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="8">
         <v>2213149638</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1439,13 +1439,13 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8">
         <v>2214096963</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1453,13 +1453,13 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="8">
         <v>2215790626</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1467,13 +1467,13 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="8">
         <v>2216717444</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1481,13 +1481,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="8">
         <v>2214871080</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1495,13 +1495,13 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="8">
         <v>2214852790</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1509,41 +1509,41 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="8">
         <v>2213182388</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="8">
         <v>2216271194</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C48" s="8">
         <v>2214634036</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1551,13 +1551,13 @@
         <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="8">
         <v>2215066818</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1565,13 +1565,13 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="8">
         <v>2215083357</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1579,13 +1579,13 @@
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="8">
         <v>2214959063</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1593,13 +1593,13 @@
         <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="8">
         <v>2213047819</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1607,13 +1607,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="8">
         <v>2214375242</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1621,13 +1621,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="8">
         <v>2214973910</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1635,13 +1635,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="8">
         <v>2215442803</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1649,13 +1649,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="8">
         <v>2216281775</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1663,27 +1663,27 @@
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="8">
         <v>2216407908</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C58" s="8">
         <v>2215018014</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1691,13 +1691,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1705,13 +1705,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1719,13 +1719,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1733,13 +1733,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" s="9">
         <v>2214592961</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1747,27 +1747,27 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1775,13 +1775,13 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="9">
         <v>2213040352</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1789,13 +1789,13 @@
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="D66" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
-  <si>
-    <t>1/2/3/4/5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -56,9 +53,6 @@
     <t>115 n° 1042</t>
   </si>
   <si>
-    <t>10/11/12/13</t>
-  </si>
-  <si>
     <t>Cesar Villegas</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>115 n° 1062</t>
   </si>
   <si>
-    <t>15/16</t>
-  </si>
-  <si>
     <t>Maximiliano Cufre y Natalia</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>115 n° 1170</t>
   </si>
   <si>
-    <t>26/27</t>
-  </si>
-  <si>
     <t>Estela</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>115 n° 1288</t>
   </si>
   <si>
-    <t>36/37</t>
-  </si>
-  <si>
     <t>Veronica e Ismael</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>115 n° 1301</t>
   </si>
   <si>
-    <t>39/40</t>
-  </si>
-  <si>
     <t>Celeste y Juan</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t xml:space="preserve">115 n° 1331 </t>
   </si>
   <si>
-    <t>44/45</t>
-  </si>
-  <si>
     <t>Natalia e Ignacio</t>
   </si>
   <si>
@@ -299,15 +278,9 @@
     <t>115 n° 1509</t>
   </si>
   <si>
-    <t>59/60</t>
-  </si>
-  <si>
     <t>115 n° 1494</t>
   </si>
   <si>
-    <t>61/62</t>
-  </si>
-  <si>
     <t>Graciela Rojas</t>
   </si>
   <si>
@@ -365,9 +338,6 @@
     <t>115 n° 1560</t>
   </si>
   <si>
-    <t>72/73</t>
-  </si>
-  <si>
     <t>Andrea Rodriguez</t>
   </si>
   <si>
@@ -401,9 +371,6 @@
     <t>115 nº 1355</t>
   </si>
   <si>
-    <t>82/83</t>
-  </si>
-  <si>
     <t>Constanza Mejia/Jorge Sanz</t>
   </si>
   <si>
@@ -434,9 +401,6 @@
     <t>Leonardo y Claudia</t>
   </si>
   <si>
-    <t>2215956774 / 2215386172</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pablo  </t>
   </si>
   <si>
@@ -474,6 +438,174 @@
   </si>
   <si>
     <t>Mariano</t>
+  </si>
+  <si>
+    <t>221-6203488</t>
+  </si>
+  <si>
+    <t>221-5681856</t>
+  </si>
+  <si>
+    <t>221-5758838</t>
+  </si>
+  <si>
+    <t>221-6914124</t>
+  </si>
+  <si>
+    <t>221-5956774 / 221-5386172</t>
+  </si>
+  <si>
+    <t>221-4555259</t>
+  </si>
+  <si>
+    <t>221-5467497</t>
+  </si>
+  <si>
+    <t>11-38440081</t>
+  </si>
+  <si>
+    <t>221-4949464</t>
+  </si>
+  <si>
+    <t>221-6543997</t>
+  </si>
+  <si>
+    <t>221-5369942</t>
+  </si>
+  <si>
+    <t>221-5725383</t>
+  </si>
+  <si>
+    <t>221-5933061</t>
+  </si>
+  <si>
+    <t>11-63724029</t>
+  </si>
+  <si>
+    <t>221-5426330</t>
+  </si>
+  <si>
+    <t>221-6315309</t>
+  </si>
+  <si>
+    <t>11-50438399</t>
+  </si>
+  <si>
+    <t>221-6908075</t>
+  </si>
+  <si>
+    <t>221-5551396</t>
+  </si>
+  <si>
+    <t>221-4945985</t>
+  </si>
+  <si>
+    <t>221-4764281</t>
+  </si>
+  <si>
+    <t>221-5364308</t>
+  </si>
+  <si>
+    <t>221-5225126</t>
+  </si>
+  <si>
+    <t>221-3149638</t>
+  </si>
+  <si>
+    <t>221-4096963</t>
+  </si>
+  <si>
+    <t>221-5790626</t>
+  </si>
+  <si>
+    <t>221-6717444</t>
+  </si>
+  <si>
+    <t>221-4871080</t>
+  </si>
+  <si>
+    <t>221-4852790</t>
+  </si>
+  <si>
+    <t>221-3182388</t>
+  </si>
+  <si>
+    <t>221-6271194</t>
+  </si>
+  <si>
+    <t>221-4634036</t>
+  </si>
+  <si>
+    <t>221-5066818</t>
+  </si>
+  <si>
+    <t>221-5083357</t>
+  </si>
+  <si>
+    <t>221-4959063</t>
+  </si>
+  <si>
+    <t>221-3047819</t>
+  </si>
+  <si>
+    <t>221-4375242</t>
+  </si>
+  <si>
+    <t>221-4973910</t>
+  </si>
+  <si>
+    <t>221-5442803</t>
+  </si>
+  <si>
+    <t>221-6281775</t>
+  </si>
+  <si>
+    <t>221-6407908</t>
+  </si>
+  <si>
+    <t>221-5018014</t>
+  </si>
+  <si>
+    <t>221-4592961</t>
+  </si>
+  <si>
+    <t>221-3040352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 2 / 3 / 4 / 5 </t>
+  </si>
+  <si>
+    <t>10 / 11 / 12 / 13</t>
+  </si>
+  <si>
+    <t>15 / 16</t>
+  </si>
+  <si>
+    <t>26 / 27</t>
+  </si>
+  <si>
+    <t>36 / 37</t>
+  </si>
+  <si>
+    <t>39 / 40</t>
+  </si>
+  <si>
+    <t>44 / 45</t>
+  </si>
+  <si>
+    <t>47 / 78</t>
+  </si>
+  <si>
+    <t>59 / 60</t>
+  </si>
+  <si>
+    <t>61 / 62</t>
+  </si>
+  <si>
+    <t>72 / 73</t>
+  </si>
+  <si>
+    <t>82 / 83</t>
   </si>
 </sst>
 </file>
@@ -863,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -876,30 +1008,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="8">
         <v>2216698300</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -907,13 +1039,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -921,41 +1053,41 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8">
         <v>1144345440</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -963,27 +1095,27 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8">
         <v>1134814269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -991,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1005,13 +1137,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8">
         <v>2214007632</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1019,13 +1151,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <v>2216008931</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1033,13 +1165,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8">
         <v>2214205449</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1047,13 +1179,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1061,13 +1193,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2216203488</v>
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,13 +1207,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2215681856</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1089,13 +1221,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1103,27 +1235,27 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2215758838</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2216914124</v>
+        <v>132</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1131,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1145,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1159,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2214555259</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1173,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2215467497</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1187,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1138440081</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,13 +1333,13 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2214949464</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2216543997</v>
+        <v>46</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,27 +1361,27 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2215369942</v>
+        <v>123</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1257,27 +1389,27 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2215725383</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2215933061</v>
+        <v>53</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1285,13 +1417,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1163724029</v>
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1299,13 +1431,13 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2215426330</v>
+        <v>122</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1313,27 +1445,27 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2216315309</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1150438399</v>
+        <v>60</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1341,27 +1473,27 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2216908075</v>
+        <v>62</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>47.78</v>
+      <c r="A35" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2215551396</v>
+        <v>64</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,13 +1501,13 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2214945985</v>
+        <v>66</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1383,13 +1515,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="8">
-        <v>2214764281</v>
+        <v>68</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1397,13 +1529,13 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="8">
-        <v>2215364308</v>
+        <v>134</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,13 +1543,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2215225126</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1425,13 +1557,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="8">
-        <v>2213149638</v>
+        <v>73</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1439,13 +1571,13 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="8">
-        <v>2214096963</v>
+        <v>75</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1453,13 +1585,13 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2215790626</v>
+        <v>133</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1467,13 +1599,13 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2216717444</v>
+        <v>121</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1481,13 +1613,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2214871080</v>
+        <v>79</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1495,13 +1627,13 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2214852790</v>
+        <v>136</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1509,41 +1641,41 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="8">
-        <v>2213182388</v>
+        <v>82</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2216271194</v>
+        <v>135</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="8">
-        <v>2214634036</v>
+        <v>85</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1551,13 +1683,13 @@
         <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2215066818</v>
+        <v>87</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1565,13 +1697,13 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2215083357</v>
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1579,13 +1711,13 @@
         <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2214959063</v>
+        <v>33</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1593,13 +1725,13 @@
         <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2213047819</v>
+        <v>92</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1607,13 +1739,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2214375242</v>
+        <v>94</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1621,13 +1753,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2214973910</v>
+        <v>96</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1635,13 +1767,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="8">
-        <v>2215442803</v>
+        <v>98</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1649,13 +1781,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2216281775</v>
+        <v>100</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1663,27 +1795,27 @@
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="8">
-        <v>2216407908</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="8">
-        <v>2215018014</v>
+        <v>104</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1691,13 +1823,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1705,13 +1837,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1719,13 +1851,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1733,13 +1865,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="9">
-        <v>2214592961</v>
+        <v>112</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1747,27 +1879,27 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1775,13 +1907,13 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="9">
-        <v>2213040352</v>
+        <v>118</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1789,13 +1921,13 @@
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -606,6 +606,24 @@
   </si>
   <si>
     <t>82 / 83</t>
+  </si>
+  <si>
+    <t>221-6698300</t>
+  </si>
+  <si>
+    <t>11-44345440</t>
+  </si>
+  <si>
+    <t>11-34814269</t>
+  </si>
+  <si>
+    <t>221-4007632</t>
+  </si>
+  <si>
+    <t>221-6008931</t>
+  </si>
+  <si>
+    <t>221-4205449</t>
   </si>
 </sst>
 </file>
@@ -995,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,8 +1045,8 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
-        <v>2216698300</v>
+      <c r="C2" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1083,8 +1101,8 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
-        <v>1144345440</v>
+      <c r="C6" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1097,8 +1115,8 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
-        <v>1134814269</v>
+      <c r="C7" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1139,8 +1157,8 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
-        <v>2214007632</v>
+      <c r="C10" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1153,8 +1171,8 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
-        <v>2216008931</v>
+      <c r="C11" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1167,8 +1185,8 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8">
-        <v>2214205449</v>
+      <c r="C12" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="197">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -369,15 +369,6 @@
   </si>
   <si>
     <t>115 nº 1355</t>
-  </si>
-  <si>
-    <t>Constanza Mejia/Jorge Sanz</t>
-  </si>
-  <si>
-    <t>222-951-1424</t>
-  </si>
-  <si>
-    <t>115 nº 1140</t>
   </si>
   <si>
     <t>Angelica y Marcelo</t>
@@ -1013,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,27 +1017,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1060,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1074,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1088,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1096,13 +1087,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1116,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1115,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1144,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1158,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1172,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1186,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1200,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1214,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1228,7 +1219,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -1239,10 +1230,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1256,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>32</v>
@@ -1264,13 +1255,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -1281,10 +1272,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -1298,7 +1289,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
@@ -1312,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>39</v>
@@ -1326,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
@@ -1340,7 +1331,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1354,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>45</v>
@@ -1368,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
@@ -1379,10 +1370,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -1390,13 +1381,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -1410,7 +1401,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
@@ -1418,13 +1409,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>54</v>
@@ -1438,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>56</v>
@@ -1449,10 +1440,10 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>57</v>
@@ -1466,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>59</v>
@@ -1474,13 +1465,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>61</v>
@@ -1494,7 +1485,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>63</v>
@@ -1502,13 +1493,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
@@ -1522,7 +1513,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>67</v>
@@ -1536,7 +1527,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>69</v>
@@ -1547,10 +1538,10 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>70</v>
@@ -1564,7 +1555,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>72</v>
@@ -1578,7 +1569,7 @@
         <v>73</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>74</v>
@@ -1592,7 +1583,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>76</v>
@@ -1603,10 +1594,10 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>77</v>
@@ -1617,10 +1608,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>78</v>
@@ -1634,7 +1625,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>80</v>
@@ -1645,10 +1636,10 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>81</v>
@@ -1662,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>83</v>
@@ -1670,13 +1661,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>84</v>
@@ -1684,13 +1675,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>86</v>
@@ -1704,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>88</v>
@@ -1718,7 +1709,7 @@
         <v>89</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>90</v>
@@ -1732,7 +1723,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>91</v>
@@ -1746,7 +1737,7 @@
         <v>92</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>93</v>
@@ -1760,7 +1751,7 @@
         <v>94</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>95</v>
@@ -1774,7 +1765,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>97</v>
@@ -1788,7 +1779,7 @@
         <v>98</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>99</v>
@@ -1802,7 +1793,7 @@
         <v>100</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>101</v>
@@ -1816,7 +1807,7 @@
         <v>102</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>103</v>
@@ -1824,13 +1815,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>105</v>
@@ -1844,7 +1835,7 @@
         <v>106</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>107</v>
@@ -1858,7 +1849,7 @@
         <v>108</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>109</v>
@@ -1872,7 +1863,7 @@
         <v>110</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>111</v>
@@ -1886,7 +1877,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>113</v>
@@ -1897,10 +1888,10 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>114</v>
@@ -1908,13 +1899,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>117</v>
@@ -1925,13 +1916,13 @@
         <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1939,13 +1930,13 @@
         <v>80</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="199">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -596,9 +596,6 @@
     <t>72 / 73</t>
   </si>
   <si>
-    <t>82 / 83</t>
-  </si>
-  <si>
     <t>221-6698300</t>
   </si>
   <si>
@@ -615,6 +612,15 @@
   </si>
   <si>
     <t>221-4205449</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Estela Retta</t>
+  </si>
+  <si>
+    <t>115 nº 1364</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1093,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1149,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1163,7 +1169,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1177,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1898,45 +1904,64 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>190</v>
+      <c r="A64" s="5">
+        <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>117</v>
+        <v>197</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1163620357</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
         <v>80</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\web\alarma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbasilico\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="201">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>115 nº 1364</t>
+  </si>
+  <si>
+    <t>Emanuel y Jorgelina</t>
+  </si>
+  <si>
+    <t>115 nº 1140</t>
   </si>
 </sst>
 </file>
@@ -1010,18 +1016,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>125</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>179</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>7</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>180</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>181</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>17</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>18</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>19</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>20</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>21</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>22</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>23</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>24</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>25</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>182</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>28</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>29</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>30</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>31</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>32</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>33</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>34</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>35</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>183</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>38</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>41</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>42</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>185</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>46</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>186</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>48</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>49</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>50</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>51</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>52</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>53</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>54</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>55</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>56</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>57</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>58</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>187</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>188</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>63</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>64</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>65</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>66</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>67</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>68</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>69</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>70</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>71</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>189</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>74</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>81</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>76</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>77</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>79</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>82</v>
       </c>
@@ -1917,21 +1923,21 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>117</v>
+        <v>199</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1176381379</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>84</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>80</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>196</v>
       </c>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbasilico\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>115 n° 1334</t>
   </si>
   <si>
-    <t>Gustavo maquieira</t>
-  </si>
-  <si>
     <t>115 n° 1329</t>
   </si>
   <si>
@@ -627,6 +624,9 @@
   </si>
   <si>
     <t>115 nº 1140</t>
+  </si>
+  <si>
+    <t>Gustavo Maquieira</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,27 +1029,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1161,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1175,7 +1175,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1217,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1231,7 +1231,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -1242,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>32</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -1284,10 +1284,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -1301,7 +1301,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
@@ -1315,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>39</v>
@@ -1329,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
@@ -1343,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1357,7 +1357,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>45</v>
@@ -1371,7 +1371,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
@@ -1382,10 +1382,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -1413,7 +1413,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>54</v>
@@ -1438,13 +1438,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1466,27 +1466,27 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,27 +1494,27 @@
         <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1522,13 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1536,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1550,13 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,13 +1564,13 @@
         <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +1578,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1592,13 @@
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1606,13 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1620,13 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,13 +1648,13 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,41 +1662,41 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1704,13 @@
         <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1718,13 @@
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>33</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,13 +1746,13 @@
         <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,13 +1760,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1774,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,13 +1788,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,13 +1802,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,27 +1816,27 @@
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,13 +1844,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,13 +1858,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,13 +1900,13 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,13 +1914,13 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="9">
         <v>1163620357</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +1928,13 @@
         <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="9">
         <v>1176381379</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,13 +1942,13 @@
         <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,18 +1956,18 @@
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="203">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -611,9 +611,6 @@
     <t>221-4205449</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Estela Retta</t>
   </si>
   <si>
@@ -627,6 +624,15 @@
   </si>
   <si>
     <t>Gustavo Maquieira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>115 nº 1563</t>
+  </si>
+  <si>
+    <t>,,,</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,6 +739,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>147</v>
@@ -1914,13 +1927,13 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" s="9">
         <v>1163620357</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +1941,13 @@
         <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="9">
         <v>1176381379</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,9 +1979,26 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>195</v>
-      </c>
+      <c r="A68" s="15">
+        <v>87</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1123755885</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -633,6 +633,15 @@
   </si>
   <si>
     <t>,,,</t>
+  </si>
+  <si>
+    <t>11-23755885</t>
+  </si>
+  <si>
+    <t>11-76381379</t>
+  </si>
+  <si>
+    <t>11-63620357</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,8 +1938,8 @@
       <c r="B64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="9">
-        <v>1163620357</v>
+      <c r="C64" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>196</v>
@@ -1943,8 +1952,8 @@
       <c r="B65" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="9">
-        <v>1176381379</v>
+      <c r="C65" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>198</v>
@@ -1985,8 +1994,8 @@
       <c r="B68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="9">
-        <v>1123755885</v>
+      <c r="C68" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>201</v>

--- a/ListaVecinos.xlsx
+++ b/ListaVecinos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbasilico.NOTE0242\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="207">
   <si>
     <t>Gabriela Diaz</t>
   </si>
@@ -305,9 +305,6 @@
     <t>115 n° 1538</t>
   </si>
   <si>
-    <t>Lopez Omar</t>
-  </si>
-  <si>
     <t>115 n° 1507</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>61 / 62</t>
   </si>
   <si>
-    <t>72 / 73</t>
-  </si>
-  <si>
     <t>221-6698300</t>
   </si>
   <si>
@@ -626,9 +620,6 @@
     <t>Gustavo Maquieira</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria </t>
-  </si>
-  <si>
     <t>115 nº 1563</t>
   </si>
   <si>
@@ -642,6 +633,18 @@
   </si>
   <si>
     <t>11-63620357</t>
+  </si>
+  <si>
+    <t>25/89</t>
+  </si>
+  <si>
+    <t>Maria Tapia</t>
+  </si>
+  <si>
+    <t>Lopez Guiliana</t>
+  </si>
+  <si>
+    <t>72 / 73 / 88</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,27 +1054,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1099,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1113,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1121,13 +1124,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1141,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1169,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1183,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1197,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1211,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1225,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1239,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1253,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -1264,24 +1267,24 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>25</v>
+      <c r="A17" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>32</v>
@@ -1289,13 +1292,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -1306,10 +1309,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -1323,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
@@ -1337,7 +1340,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>39</v>
@@ -1351,7 +1354,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
@@ -1365,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1379,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>45</v>
@@ -1393,7 +1396,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
@@ -1404,10 +1407,10 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -1415,13 +1418,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -1435,7 +1438,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
@@ -1443,13 +1446,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>54</v>
@@ -1460,10 +1463,10 @@
         <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>55</v>
@@ -1474,10 +1477,10 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
@@ -1491,7 +1494,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>58</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>60</v>
@@ -1519,7 +1522,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>62</v>
@@ -1527,13 +1530,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>64</v>
@@ -1547,7 +1550,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>66</v>
@@ -1561,7 +1564,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>68</v>
@@ -1572,10 +1575,10 @@
         <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>69</v>
@@ -1589,7 +1592,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>71</v>
@@ -1603,7 +1606,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>73</v>
@@ -1617,7 +1620,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>75</v>
@@ -1628,10 +1631,10 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>76</v>
@@ -1642,10 +1645,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>77</v>
@@ -1659,7 +1662,7 @@
         <v>78</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>79</v>
@@ -1670,10 +1673,10 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>80</v>
@@ -1687,7 +1690,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>82</v>
@@ -1695,13 +1698,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -1709,13 +1712,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>85</v>
@@ -1729,7 +1732,7 @@
         <v>86</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>87</v>
@@ -1743,7 +1746,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>89</v>
@@ -1757,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>90</v>
@@ -1771,7 +1774,7 @@
         <v>91</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>92</v>
@@ -1782,13 +1785,13 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,13 +1799,13 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,13 +1813,13 @@
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,13 +1827,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,27 +1841,27 @@
         <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,13 +1869,13 @@
         <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,13 +1883,13 @@
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,13 +1897,13 @@
         <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,13 +1911,13 @@
         <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,13 +1925,13 @@
         <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,13 +1939,13 @@
         <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,13 +1953,13 @@
         <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,13 +1967,13 @@
         <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,13 +1981,13 @@
         <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,18 +1995,18 @@
         <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
